--- a/Datawithcomments.xlsx
+++ b/Datawithcomments.xlsx
@@ -69,7 +69,7 @@
     <t xml:space="preserve">Olea_europaea</t>
   </si>
   <si>
-    <t xml:space="preserve">Olive is a diploid species see Besnard et al.2008 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2701839/ . The polyploidization at the origin of eudicotyledons is not duplication but a triplication.  we have this into account for all calculations Wendel2015 https://bsapubs.onlinelibrary.wiley.com/doi/full/10.3732/ajb.1500320</t>
+    <t xml:space="preserve">Olive is a diploid species see Besnard et al.2008 . The polyploidization at the origin of eudicotyledons is not duplication but a triplication.  we have this into account for all calculations Wendel 2015 .</t>
   </si>
   <si>
     <t xml:space="preserve">Eggplant</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Solanum_melongena</t>
   </si>
   <si>
-    <t xml:space="preserve">Eggplant is a diploid species Melo et al.2011 https://link.springer.com/article/10.1007/s00606-011-0434-2 .  The event at the origin of the Solanaceae is a triplication we have this into account for all calculations Wendel2015 https://bsapubs.onlinelibrary.wiley.com/doi/full/10.3732/ajb.1500320</t>
+    <t xml:space="preserve">Eggplant is a diploid species Melo et al. 2011.  The event at the origin of the Solanaceae is a triplication we have this into account for all calculations Wendel2 015.</t>
   </si>
   <si>
     <t xml:space="preserve">Potato</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">Solanum_tuberosum</t>
   </si>
   <si>
-    <t xml:space="preserve">Potato is a tetraploid Watanabe2015 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4374564/</t>
+    <t xml:space="preserve">Potato is a tetraploid Watanabe 2015. </t>
   </si>
   <si>
     <t xml:space="preserve">Tomato</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Solanum_lycopersicum</t>
   </si>
   <si>
-    <t xml:space="preserve">Tomato is diploid species Barone et al.2008 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2246074/</t>
+    <t xml:space="preserve">Tomato is diploid species Barone et al. 2008.</t>
   </si>
   <si>
     <t xml:space="preserve">Chili Pepper</t>
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Capsicum_annuum</t>
   </si>
   <si>
-    <t xml:space="preserve">Pepper is a diploid species Sousa et al.2015 https://www.scielo.br/pdf/asagr/v37n2/1807-8621-asagr-37-02-00147.pdf</t>
+    <t xml:space="preserve">Pepper is a diploid species Sousa et al. 2015.</t>
   </si>
   <si>
     <t xml:space="preserve">Tobacco</t>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">Nicotiana_tabacum</t>
   </si>
   <si>
-    <t xml:space="preserve">Tabacco is tetraploid Clackson et al.2010 https://www.sciencedirect.com/science/article/abs/pii/S1055790309003972?via%3Dihub</t>
+    <t xml:space="preserve">Tabacco is tetraploid Clarkson et al. 2017.</t>
   </si>
   <si>
     <t xml:space="preserve">Sweet potato</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Ipomoea_batatas</t>
   </si>
   <si>
-    <t xml:space="preserve">Sweet potato is an hexaploid Roullier et al.2013 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3664560/</t>
+    <t xml:space="preserve">Sweet potato is an hexaploid Roullier et al. 2013.</t>
   </si>
   <si>
     <t xml:space="preserve">Sunflower</t>
@@ -162,7 +162,7 @@
     <t xml:space="preserve">Helianthus_annuus</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunflower is diploid Itay et al.2010 https://academic.oup.com/sysbio/article/59/2/132/1617310</t>
+    <t xml:space="preserve">Sunflower is diploid Itay et al. 2010.</t>
   </si>
   <si>
     <t xml:space="preserve">Daisy</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Bellis_perennis</t>
   </si>
   <si>
-    <t xml:space="preserve">Bellis perennis is diploid Escudero et al.2017 https://onlinelibrary.wiley.com/doi/abs/10.1111/plb.12563</t>
+    <t xml:space="preserve">Bellis perennis is diploid Escudero et al. 2017.</t>
   </si>
   <si>
     <t xml:space="preserve">Carrot</t>
@@ -189,7 +189,7 @@
     <t xml:space="preserve">Daucus_carota</t>
   </si>
   <si>
-    <t xml:space="preserve">Carrot is diploid species Spoonet et al.2013 https://vcru.wisc.edu/spoonerlab/pdf/Spooner%20et%20al.%202013%20Daucus%20phylogeny.pdf</t>
+    <t xml:space="preserve">Carrot is diploid species Spoonet et al. 2013.</t>
   </si>
   <si>
     <t xml:space="preserve">kiwi</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">Actinidia_deliciosa</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiwifruit is hexaploid Atkinson et al.1997 https://link.springer.com/article/10.1007/BF00982801</t>
+    <t xml:space="preserve">Kiwifruit is hexaploid Atkinson et al.1997.</t>
   </si>
   <si>
     <t xml:space="preserve">Saguaro</t>
@@ -219,7 +219,7 @@
     <t xml:space="preserve">Carnegiea_gigantea</t>
   </si>
   <si>
-    <t xml:space="preserve">Carnegiea is a diploid genus Castro et al.2019 https://www.scielo.br/scielo.php?script=sci_arttext&amp;pid=S0102-33062020000100135&amp;tlng=en</t>
+    <t xml:space="preserve">Carnegiea is a diploid genus Castro et al. 2019.</t>
   </si>
   <si>
     <t xml:space="preserve">Clover</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">Trifolium_sp</t>
   </si>
   <si>
-    <t xml:space="preserve">This could be T. dubium or T. repens. We have gathered the data from T.dubium but both species are very similar and closely related. They are both tetraplois Williams et al.2019 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6805371/</t>
+    <t xml:space="preserve">This could be T. dubium or T. repens. We have gathered the data from T.dubium but both species are very similar and closely related. They are both tetraplois Williams et al. 2019.</t>
   </si>
   <si>
     <t xml:space="preserve">Peanuts</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">Arachis_hypogaea</t>
   </si>
   <si>
-    <t xml:space="preserve">Peanut is tetraploid Zhuang et al.2019 https://www.nature.com/articles/s41588-019-0402-2</t>
+    <t xml:space="preserve">Peanut is tetraploid Zhuang et al. 2019.</t>
   </si>
   <si>
     <t xml:space="preserve">Apple</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Malus_domestica</t>
   </si>
   <si>
-    <t xml:space="preserve">The paper Illa et al.2011 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3033827/ demonstrate a polyplpodization event for Malus and Pyrus in comparison with Prunus but this seems to be already been included in our analyses</t>
+    <t xml:space="preserve">The paper Illa et al. 2011 demonstrate a polyplpodization event for Malus and Pyrus in comparison with Prunus but this seems to be already been included in our analyses</t>
   </si>
   <si>
     <t xml:space="preserve">Pear</t>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">Prunus_xyedoensis</t>
   </si>
   <si>
-    <t xml:space="preserve">This is well-known to be allpoliploid hybrid between two other Prunus species</t>
+    <t xml:space="preserve">This is well-known to be allopolyploid hybrid between two other Prunus species</t>
   </si>
   <si>
     <t xml:space="preserve">Peach</t>
@@ -351,7 +351,7 @@
     <t xml:space="preserve">Citrullus_lanatus</t>
   </si>
   <si>
-    <t xml:space="preserve">They is a paper that demonstrate an additional polyploidization for Cucurbitaceae Wang et al.2018 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5850751/ and also demonstrate additional polyploidization among these species within Cucurbitaceae</t>
+    <t xml:space="preserve">They is a paper that demonstrate an additional polyploidization for Cucurbitaceae Wang et al. 2018.  and also demonstrate additional polyploidization among these species within Cucurbitaceae</t>
   </si>
   <si>
     <t xml:space="preserve">Melon</t>
@@ -393,7 +393,7 @@
     <t xml:space="preserve">Citrus_reticulata</t>
   </si>
   <si>
-    <t xml:space="preserve">These Citrus species are diploids Wu et al.2018 https://www.nature.com/articles/nature25447</t>
+    <t xml:space="preserve">These Citrus species are diploids Wu et al. 2018. </t>
   </si>
   <si>
     <t xml:space="preserve">Lemon</t>
@@ -417,7 +417,7 @@
     <t xml:space="preserve">Acer_sp</t>
   </si>
   <si>
-    <t xml:space="preserve">Most of the species of Acer are diploids n=13 although there other ploidy levels we have taken diploid number. We report here the genome size of Acer platanoides which was a diploid species with value in the middle</t>
+    <t xml:space="preserve">Most of the species of Acer are diploids n=13 although there other ploidy levels we have taken diploid number. We report here the genome size of Acer platanoides which was a diploid species with value in the middle.</t>
   </si>
   <si>
     <t xml:space="preserve">Hibiscus</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">Hibiscus_rosa-sinensis</t>
   </si>
   <si>
-    <t xml:space="preserve">This chromsome number is considered a octoploid here Kim et al.2017 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5381346/. Here we wide report the genome size of Hibiscus syriacus  Chen &amp; Contreras2019 https://horticulture.oregonstate.edu/sites/agscid7/files/horticulture/department-of-horticulture/23279788-variation-in-genome-size-ploidy-stomata-and-rdna-signals-in-althea.pdf</t>
+    <t xml:space="preserve">Here we wide report the genome size of Hibiscus syriacus  Chen &amp; Contreras 2019. This chromsome number is considered a octoploid here Kim et al. 2017. </t>
   </si>
   <si>
     <t xml:space="preserve">Chocolate</t>
@@ -444,7 +444,7 @@
     <t xml:space="preserve">Theobroma_cacao</t>
   </si>
   <si>
-    <t xml:space="preserve">Cacao is a diploid Argout et al.2011 https://www.nature.com/articles/ng.736</t>
+    <t xml:space="preserve">Cacao is a diploid Argout et al. 2011.</t>
   </si>
   <si>
     <t xml:space="preserve">Grapes</t>
@@ -459,7 +459,7 @@
     <t xml:space="preserve">Vitis_vinifera</t>
   </si>
   <si>
-    <t xml:space="preserve">Grape is diploid Loureiro et al.2006 https://link.springer.com/article/10.1007%2Fs00299-006-0162-1</t>
+    <t xml:space="preserve">Grape is diploid Leal et al. 2006. </t>
   </si>
   <si>
     <t xml:space="preserve">Avocado</t>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">Persea_americana</t>
   </si>
   <si>
-    <t xml:space="preserve">Abocado is a diploid Chanderbali et al.2008 https://onlinelibrary.wiley.com/doi/abs/10.1002/bies.20721</t>
+    <t xml:space="preserve">Abocado is a diploid Chanderbali et al. 2008.</t>
   </si>
   <si>
     <t xml:space="preserve">Bamboo</t>
@@ -489,7 +489,7 @@
     <t xml:space="preserve">Phyllostachys_sp</t>
   </si>
   <si>
-    <t xml:space="preserve">This bamboo is tetraploid Yeasmin et al.2015 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4327751/</t>
+    <t xml:space="preserve">This bamboo is tetraploid Yeasmin et al. 2015.</t>
   </si>
   <si>
     <t xml:space="preserve">Corn</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Zea_mays</t>
   </si>
   <si>
-    <t xml:space="preserve">Corn is diploid species Tiffin &amp; Gaut2001 https://www.genetics.org/content/158/1/401</t>
+    <t xml:space="preserve">Corn is diploid species Tiffin &amp; Gaut 2001.</t>
   </si>
   <si>
     <t xml:space="preserve">Rice</t>
@@ -513,7 +513,7 @@
     <t xml:space="preserve">Oryza_sativa</t>
   </si>
   <si>
-    <t xml:space="preserve">Rice is a diploid Stein et al.2012 https://www.nature.com/articles/s41588-018-0040-0</t>
+    <t xml:space="preserve">Rice is a diploid Stein et al. 2012. </t>
   </si>
   <si>
     <t xml:space="preserve">Pineapple</t>
@@ -528,7 +528,7 @@
     <t xml:space="preserve">Ananas_comosus</t>
   </si>
   <si>
-    <t xml:space="preserve">Pineapple is a diploid Matuszak-Renger et al.2018 https://link.springer.com/article/10.1007%2Fs00606-018-1514-3</t>
+    <t xml:space="preserve">Pineapple is a diploid Matuszak-Renger et al. 2018.</t>
   </si>
   <si>
     <t xml:space="preserve">Palm</t>
@@ -543,7 +543,7 @@
     <t xml:space="preserve">Cocos_nucifera</t>
   </si>
   <si>
-    <t xml:space="preserve">Palms are all diploids Barrett et al.2019 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6535811/</t>
+    <t xml:space="preserve">Palms are all diploids Barrett et al. 2019.</t>
   </si>
   <si>
     <t xml:space="preserve">Banana</t>
@@ -558,7 +558,7 @@
     <t xml:space="preserve">Musa_xparadisiaca</t>
   </si>
   <si>
-    <t xml:space="preserve">Banana is a diploid Martin et al.2017 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5850475/</t>
+    <t xml:space="preserve">Banana is a diploid Martin et al. 2017. </t>
   </si>
   <si>
     <t xml:space="preserve">Tulip</t>
@@ -573,25 +573,7 @@
     <t xml:space="preserve">Tulipa_sp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">There are several ploidy levels of Tulip </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">12 is the lower. We have include the genome size of Tulipa montana which is diplid and has a genome size in the middle for diploids. This is the number for diploid species a clade bigger than Tulipa Peruzzi et al.2019 https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2707325/</t>
-    </r>
+    <t xml:space="preserve">There are several ploidy levels of Tulip 12 is the lower. We have include the genome size of Tulipa montana which is diplid and has a genome size in the middle for diploids. This is the number for diploid species a clade bigger than Tulipa Peruzzi et al. 2019.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -643,7 +625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -665,12 +647,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -739,17 +715,17 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="24.72"/>
@@ -1076,7 +1052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>50</v>
       </c>
@@ -2036,7 +2012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>178</v>
       </c>
@@ -2168,10 +2144,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J11" r:id="rId1" display="https://vcru.wisc.edu/spoonerlab/pdf/Spooner%20et%20al.%202013%20Daucus%20phylogeny.pdf"/>
-    <hyperlink ref="J41" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2707325/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2193,7 +2165,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2216,7 +2188,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
